--- a/sample_files/sample.xlsx
+++ b/sample_files/sample.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B43670F-B408-9F47-9B02-CCEC9082FAB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F662DFAF-466E-6246-B11F-041C4F4AD035}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="しーとに" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,13 +21,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>abc</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>def</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えーいち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えーに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>びーいち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しーさん</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -354,7 +371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -381,4 +398,38 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328DF3B4-7DE7-5842-BC1A-8177BECE60F1}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>